--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074747.747393684</v>
+        <v>-1077304.063220934</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.6249249904627</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>321.4271233928308</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.978140404250347</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>195.276863634281</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>399.6103551260145</v>
       </c>
       <c r="G5" t="n">
-        <v>289.8681104214107</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>83.96461411416345</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>21.13871586091597</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.1687902105925</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>125.0132180293225</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>143.8294614350713</v>
       </c>
       <c r="G10" t="n">
-        <v>53.63774713810049</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663482</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444119</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>154.0869401039757</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>51.36569740310225</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856647</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.0656089242828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>8.579726596858487</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389243</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4312223122543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444127</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719604</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.829289912211</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.866772971799</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="D2" t="n">
-        <v>1202.866772971799</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2684.663543507527</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W2" t="n">
-        <v>2331.894888237412</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.429129976333</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.429129976333</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4401,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122977</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W4" t="n">
-        <v>666.2025176122977</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>217.4203875707507</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559524</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.348043559524</v>
+        <v>1583.077587705312</v>
       </c>
       <c r="D5" t="n">
-        <v>1156.082344952773</v>
+        <v>1224.811889098562</v>
       </c>
       <c r="E5" t="n">
-        <v>770.2940923545291</v>
+        <v>1224.811889098562</v>
       </c>
       <c r="F5" t="n">
-        <v>359.3081875649215</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
         <v>767.0908251999817</v>
@@ -4638,19 +4638,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.8974549201672</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C7" t="n">
-        <v>692.8974549201672</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>542.7808155078314</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>394.8677219254383</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>394.8677219254383</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>899.5347675748355</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>899.5347675748355</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>610.1175975378749</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201672</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201672</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524208</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263128</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263128</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228021</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158142</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
       <c r="C10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
       <c r="D10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
       <c r="E10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
       <c r="F10" t="n">
-        <v>218.0173361775759</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450105</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145366</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145366</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145366</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W10" t="n">
-        <v>218.0173361775759</v>
+        <v>439.7839516080506</v>
       </c>
       <c r="X10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.0173361775759</v>
+        <v>211.7944007100332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362667</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578612</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000592</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400724</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121655</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121655</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121655</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121655</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270454</v>
+        <v>244.1948847076511</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>102.4830535498491</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138422</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703121</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="29">
@@ -6452,25 +6452,25 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6479,16 +6479,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6838,7 +6838,7 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942654</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,7 +7075,7 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656816</v>
@@ -7315,28 +7315,28 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.0581166302203</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>6.325135077304139</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163.2686806943775</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>43.41802865243835</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.32554007175791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>30.43279175475612</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.875832822406664e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891666</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194109</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>72.68610972170704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1015512.845365931</v>
+        <v>1015512.845365932</v>
       </c>
     </row>
     <row r="3">
@@ -26317,13 +26317,13 @@
         <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225015</v>
@@ -26335,13 +26335,13 @@
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660713</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363164</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691495</v>
+        <v>11387.33216691505</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26436,28 +26436,28 @@
         <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1278813.877561579</v>
+        <v>-1279173.960577297</v>
       </c>
       <c r="C6" t="n">
-        <v>3729.757800624779</v>
+        <v>3729.75780062488</v>
       </c>
       <c r="D6" t="n">
-        <v>3729.75780062507</v>
+        <v>3729.757800624895</v>
       </c>
       <c r="E6" t="n">
-        <v>-239575.0377506285</v>
+        <v>-239609.7756760638</v>
       </c>
       <c r="F6" t="n">
-        <v>85837.42405672705</v>
+        <v>85802.68613129138</v>
       </c>
       <c r="G6" t="n">
-        <v>85837.42405672705</v>
+        <v>85802.68613129135</v>
       </c>
       <c r="H6" t="n">
-        <v>85837.42405672705</v>
+        <v>85802.68613129135</v>
       </c>
       <c r="I6" t="n">
-        <v>85837.42405672687</v>
+        <v>85802.68613129135</v>
       </c>
       <c r="J6" t="n">
-        <v>-131693.7783405504</v>
+        <v>-131728.5162659861</v>
       </c>
       <c r="K6" t="n">
-        <v>85837.4240567271</v>
+        <v>85802.68613129143</v>
       </c>
       <c r="L6" t="n">
-        <v>59851.05331356335</v>
+        <v>59851.05331356311</v>
       </c>
       <c r="M6" t="n">
-        <v>-5776.256628316944</v>
+        <v>-5776.256628316842</v>
       </c>
       <c r="N6" t="n">
         <v>79278.77130719469</v>
@@ -26561,7 +26561,7 @@
         <v>79278.77130719466</v>
       </c>
       <c r="P6" t="n">
-        <v>79278.77130719463</v>
+        <v>79278.77130719472</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>176.1309206237308</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>253.1974582648331</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7.26569061569694</v>
       </c>
       <c r="G5" t="n">
-        <v>121.0536152320427</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.06119414486477</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,13 +27828,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>265.0731223446969</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.565051452888099</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>261.2247206267311</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>1.591586587859922</v>
       </c>
       <c r="G10" t="n">
-        <v>112.3880611209277</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.416577200369171e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
